--- a/inputs/inventory/xlsx/inventory.xlsx
+++ b/inputs/inventory/xlsx/inventory.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">10.0.0.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Cisco</t>
+    <t xml:space="preserve">cisco</t>
   </si>
   <si>
     <t xml:space="preserve">router</t>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">10.0.0.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Arista</t>
-  </si>
-  <si>
     <t xml:space="preserve">switch</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
     <t xml:space="preserve">10.0.0.18</t>
   </si>
   <si>
+    <t xml:space="preserve">arista</t>
+  </si>
+  <si>
     <t xml:space="preserve">lab-junos-01.lab.dfjt.local</t>
   </si>
   <si>
     <t xml:space="preserve">10.0.0.15</t>
   </si>
   <si>
-    <t xml:space="preserve">Juniper</t>
+    <t xml:space="preserve">juniper</t>
   </si>
   <si>
     <t xml:space="preserve">junos</t>
@@ -107,11 +107,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,12 +128,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,11 +183,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,10 +211,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -287,30 +282,30 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,7 +336,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
